--- a/Excel/legs.xlsx
+++ b/Excel/legs.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\BD6\projet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB53576-6FBB-421C-9497-B96D1E5CC2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{E3ED0ABC-1F31-4665-8564-B2FDFC320307}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>shipment_id</t>
   </si>
@@ -53,12 +47,48 @@
   </si>
   <si>
     <t>traveled_distance</t>
+  </si>
+  <si>
+    <t>Royaume de Ryukyu</t>
+  </si>
+  <si>
+    <t>port4</t>
+  </si>
+  <si>
+    <t>Province-Unies</t>
+  </si>
+  <si>
+    <t>port5</t>
+  </si>
+  <si>
+    <t>Dynastie Joseon</t>
+  </si>
+  <si>
+    <t>Dynastie Qing</t>
+  </si>
+  <si>
+    <t>port3</t>
+  </si>
+  <si>
+    <t>Royaume du Kongo</t>
+  </si>
+  <si>
+    <t>Dai Viet</t>
+  </si>
+  <si>
+    <t>Saint-Empire romain germanique</t>
+  </si>
+  <si>
+    <t>Royaume de France</t>
+  </si>
+  <si>
+    <t>Empire chérifien</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,21 +426,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09B1188-CA9F-454C-8772-61240E7EF694}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -432,6 +462,186 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>1923</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/legs.xlsx
+++ b/Excel/legs.xlsx
@@ -82,7 +82,7 @@
     <t>Royaume de France</t>
   </si>
   <si>
-    <t>Empire chérifien</t>
+    <t>Empire cherifien</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,7 +437,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
